--- a/reports.xlsx
+++ b/reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,146 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-27 13:15:35.795970</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-27 13:15:43.682328</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-27 13:24:56.535404</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-27 13:27:36.076975</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-27 13:34:00.624939</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-28 13:24:19.980226</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[[549, 204]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-28 13:25:02.814425</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>116</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[[681, 630], [684, 630], [687, 629], [690, 627], [692, 624], [694, 621], [699, 620], [702, 616], [706, 612], [709, 609], [712, 606], [715, 605], [718, 601], [721, 599], [723, 596], [724, 593], [725, 591], [727, 589], [729, 587], [731, 584], [732, 581], [734, 578], [737, 577], [739, 575], [741, 572], [744, 573], [747, 573], [750, 570], [753, 570], [756, 569], [758, 568], [762, 567], [765, 568], [768, 568], [771, 568], [772, 569], [774, 570], [776, 570], [777, 572], [777, 573], [777, 573], [776, 574], [774, 576], [772, 579], [769, 582], [765, 584], [761, 586], [757, 590], [752, 591], [749, 592], [744, 592], [740, 592], [737, 592], [734, 592], [731, 590], [728, 590], [726, 589], [724, 586], [723, 583], [722, 581], [722, 578], [722, 573], [763, 463], [771, 438], [781, 412], [787, 391], [814, 334], [814, 338], [821, 318], [821, 305], [832, 296], [833, 282], [840, 271], [846, 262], [849, 251], [852, 243], [855, 236], [859, 228], [855, 223], [858, 217], [861, 208], [866, 199], [866, 198], [868, 191], [869, 185], [870, 180], [873, 173], [871, 170], [872, 160], [836, 145], [850, 154], [854, 158], [861, 160], [862, 162], [868, 165], [914, 180], [924, 183], [934, 187], [942, 190], [954, 195], [965, 198], [976, 204], [987, 209], [1000, 215], [1014, 220], [1025, 228], [1037, 234], [1049, 242], [1060, 250], [1074, 257], [1086, 267], [1099, 275], [1110, 283], [1123, 292], [1137, 301], [1150, 311]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
